--- a/Modello/nuovi modelli/IndiceMalmquist/Soluzione-Malmquist-4.xlsx
+++ b/Modello/nuovi modelli/IndiceMalmquist/Soluzione-Malmquist-4.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="true"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="7"/>
   </bookViews>
@@ -314,12 +314,7 @@
     <definedName name="Test9_DMU_8">Test9!$I$2:$I$6</definedName>
     <definedName name="Test9_DMU_9">Test9!$J$2:$J$6</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
@@ -458,8 +453,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,24 +500,16 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -788,53 +775,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="6.5546875" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="8.44140625" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="8.109375" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="4" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="5.6640625" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="5.33203125" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="7.109375" bestFit="true" customWidth="true"/>
+    <col min="16" max="16" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="6.6640625" bestFit="true" customWidth="true"/>
+    <col min="18" max="18" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="3.77734375" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="3.88671875" bestFit="true" customWidth="true"/>
+    <col min="22" max="22" width="4" bestFit="true" customWidth="true"/>
+    <col min="23" max="23" width="3.77734375" bestFit="true" customWidth="true"/>
+    <col min="24" max="24" width="5.21875" bestFit="true" customWidth="true"/>
+    <col min="25" max="25" width="5.6640625" bestFit="true" customWidth="true"/>
+    <col min="26" max="26" width="6.88671875" bestFit="true" customWidth="true"/>
+    <col min="27" max="27" width="8.21875" bestFit="true" customWidth="true"/>
+    <col min="28" max="28" width="6.21875" bestFit="true" customWidth="true"/>
+    <col min="29" max="30" width="8.77734375" bestFit="true" customWidth="true"/>
+    <col min="31" max="31" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="32" max="32" width="8.33203125" bestFit="true" customWidth="true"/>
+    <col min="33" max="33" width="6.44140625" bestFit="true" customWidth="true"/>
+    <col min="34" max="34" width="8.109375" bestFit="true" customWidth="true"/>
+    <col min="35" max="35" width="8" bestFit="true" customWidth="true"/>
+    <col min="37" max="37" width="7.6640625" bestFit="true" customWidth="true"/>
+    <col min="38" max="38" width="8.109375" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" ht="43.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -950,7 +937,681 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.28426395939086296</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.1951219512195122</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.1396508728179551</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.25339366515837103</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.28309082057662144</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.26783863662534063</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.032615026208503206</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.059402232052915491</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.020245842371655821</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1.4876693517856918</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.030939226519337018</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.038915913829047952</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.33201167290490391</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.13567428838077464</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.33734939759036142</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.27450980392156865</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0.1100196463654224</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0.94161568909679749</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.28282828282828282</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1.3718693477648767</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1.1367486593718548</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1.2188487640074248</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0.22672064777327935</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0.039353478566408993</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0.26168224299065418</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0.28717948717948716</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0.90224980605120242</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0.14217314235651271</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0.12698412698412698</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>0.15469613259668508</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>0.74323652630831505</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>0.2775656324582339</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>0.084203836515681127</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.97802697677994876</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.24873096446700507</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.1545741090712742</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.17073170731707318</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.12219451371571072</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.22171945701357465</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.28049440147130422</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.26538210570759607</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.028538147932440302</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.058857413644863528</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.017810070563667867</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.4583578738257041</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.027071823204419889</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.034051424600416956</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.32896656727780249</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.13442992689376265</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.29518072289156627</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0.24019607843137256</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0.096267190569744601</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0.93297948902482919</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0.52127659574468088</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0.24747474747474749</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1.4915917195374371</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1.305751796363223</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1.402694561454199</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0.19838056680161945</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0.034434293745607872</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0.22897196261682243</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0.25128205128205128</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0.89397465735712434</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0.14086917544467309</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0.12563979865649855</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>0.13535911602209943</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>0.73641979691827031</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>0.27501988862370724</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>0.083431545667729909</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.91953190966034348</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.19243986254295534</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.13759213759213759</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.26674311926605504</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.24711381825908352</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.65116279069767447</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.031513787281935844</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.054894885760213147</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.020129403306973402</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.2943634061195055</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.031478358628442948</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.039603960396039604</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.3147260016537623</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.13876809672800552</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.32369942196531792</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.27450980392156865</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0.11914893617021277</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0.95254129317013247</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.68292682926829273</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.3146067415730337</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1.2102378266995215</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1.0365636332267985</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>0.96875976145621101</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0.20895522388059701</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0.039575971731448764</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0.25454545454545452</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0.26923076923076922</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0.84177087940809847</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>0.12508290461935578</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0.1280069463977791</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>0.15469613259668508</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0.68966198853528371</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>0.27223074722359492</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>0.13428527442075283</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.25520833333333331</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.88768935939985294</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.1683848797250859</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.12039312039312039</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.21120689655172414</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.20839760682253908</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.21582631195324881</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.56976744186046513</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.027574563871693866</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.045583806978440708</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.017613227893601726</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.027543563799887576</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.034653465346534656</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.27577521340182609</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.10487585174853624</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.28323699421965315</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.24019607843137256</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.10564304645194084</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.61349799101867175</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.59756097560975607</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.2752808988764045</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>0.95863884160062773</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0.18283582089552239</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0.034628975265017667</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0.22272727272727272</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0.2355769230769231</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0.61946706442177579</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0.10610587376058753</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0.11256082383423929</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0.13535911602209943</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>0.57436929631319023</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0.19239072494669512</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0.075867717047270328</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AL6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="6.5546875" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="8.44140625" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="8.109375" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="4" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="5.6640625" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="5.33203125" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="7.109375" bestFit="true" customWidth="true"/>
+    <col min="16" max="16" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="6.6640625" bestFit="true" customWidth="true"/>
+    <col min="18" max="18" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="3.77734375" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="3.88671875" bestFit="true" customWidth="true"/>
+    <col min="22" max="22" width="4" bestFit="true" customWidth="true"/>
+    <col min="23" max="23" width="3.77734375" bestFit="true" customWidth="true"/>
+    <col min="24" max="24" width="5.21875" bestFit="true" customWidth="true"/>
+    <col min="25" max="25" width="5.6640625" bestFit="true" customWidth="true"/>
+    <col min="26" max="26" width="6.88671875" bestFit="true" customWidth="true"/>
+    <col min="27" max="27" width="8.21875" bestFit="true" customWidth="true"/>
+    <col min="28" max="28" width="6.21875" bestFit="true" customWidth="true"/>
+    <col min="29" max="30" width="8.77734375" bestFit="true" customWidth="true"/>
+    <col min="31" max="31" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="32" max="32" width="8.33203125" bestFit="true" customWidth="true"/>
+    <col min="33" max="33" width="6.44140625" bestFit="true" customWidth="true"/>
+    <col min="34" max="34" width="8.109375" bestFit="true" customWidth="true"/>
+    <col min="35" max="35" width="8" bestFit="true" customWidth="true"/>
+    <col min="37" max="37" width="7.6640625" bestFit="true" customWidth="true"/>
+    <col min="38" max="38" width="8.109375" bestFit="true" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="43.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -992,7 +1653,7 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -1034,7 +1695,7 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -1076,7 +1737,7 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -1118,7 +1779,7 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -1165,54 +1826,54 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="6.5546875" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="8.44140625" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="8.109375" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="4" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="5.6640625" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="5.33203125" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="7.109375" bestFit="true" customWidth="true"/>
+    <col min="16" max="16" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="6.6640625" bestFit="true" customWidth="true"/>
+    <col min="18" max="18" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="3.77734375" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="3.88671875" bestFit="true" customWidth="true"/>
+    <col min="22" max="22" width="4" bestFit="true" customWidth="true"/>
+    <col min="23" max="23" width="3.77734375" bestFit="true" customWidth="true"/>
+    <col min="24" max="24" width="5.21875" bestFit="true" customWidth="true"/>
+    <col min="25" max="25" width="5.6640625" bestFit="true" customWidth="true"/>
+    <col min="26" max="26" width="6.88671875" bestFit="true" customWidth="true"/>
+    <col min="27" max="27" width="8.21875" bestFit="true" customWidth="true"/>
+    <col min="28" max="28" width="6.21875" bestFit="true" customWidth="true"/>
+    <col min="29" max="30" width="8.77734375" bestFit="true" customWidth="true"/>
+    <col min="31" max="31" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="32" max="32" width="8.33203125" bestFit="true" customWidth="true"/>
+    <col min="33" max="33" width="6.44140625" bestFit="true" customWidth="true"/>
+    <col min="34" max="34" width="8.109375" bestFit="true" customWidth="true"/>
+    <col min="35" max="35" width="8" bestFit="true" customWidth="true"/>
+    <col min="37" max="37" width="7.6640625" bestFit="true" customWidth="true"/>
+    <col min="38" max="38" width="8.109375" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" ht="43.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1328,7 +1989,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -1370,7 +2031,7 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -1412,7 +2073,7 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -1454,7 +2115,7 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -1496,7 +2157,7 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -1543,54 +2204,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="AL6" sqref="A1:AL6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" ht="43.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1706,7 +2330,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -1748,7 +2372,7 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -1790,7 +2414,7 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -1832,7 +2456,7 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -1874,7 +2498,7 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -1921,17 +2545,54 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AL6" sqref="A1:AL6"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="6.5546875" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="8.44140625" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="8.109375" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="4" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="5.6640625" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="5.33203125" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="7.109375" bestFit="true" customWidth="true"/>
+    <col min="16" max="16" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="6.6640625" bestFit="true" customWidth="true"/>
+    <col min="18" max="18" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="3.77734375" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="3.88671875" bestFit="true" customWidth="true"/>
+    <col min="22" max="22" width="4" bestFit="true" customWidth="true"/>
+    <col min="23" max="23" width="3.77734375" bestFit="true" customWidth="true"/>
+    <col min="24" max="24" width="5.21875" bestFit="true" customWidth="true"/>
+    <col min="25" max="25" width="5.6640625" bestFit="true" customWidth="true"/>
+    <col min="26" max="26" width="6.88671875" bestFit="true" customWidth="true"/>
+    <col min="27" max="27" width="8.21875" bestFit="true" customWidth="true"/>
+    <col min="28" max="28" width="6.21875" bestFit="true" customWidth="true"/>
+    <col min="29" max="30" width="8.77734375" bestFit="true" customWidth="true"/>
+    <col min="31" max="31" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="32" max="32" width="8.33203125" bestFit="true" customWidth="true"/>
+    <col min="33" max="33" width="6.44140625" bestFit="true" customWidth="true"/>
+    <col min="34" max="34" width="8.109375" bestFit="true" customWidth="true"/>
+    <col min="35" max="35" width="8" bestFit="true" customWidth="true"/>
+    <col min="37" max="37" width="7.6640625" bestFit="true" customWidth="true"/>
+    <col min="38" max="38" width="8.109375" bestFit="true" customWidth="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" ht="43.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2047,7 +2708,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -2089,7 +2750,7 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -2131,7 +2792,7 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -2173,7 +2834,7 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -2215,7 +2876,7 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -2262,54 +2923,54 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="6.5546875" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="8.44140625" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="8.109375" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="4" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="5.6640625" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="5.33203125" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="7.109375" bestFit="true" customWidth="true"/>
+    <col min="16" max="16" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="6.6640625" bestFit="true" customWidth="true"/>
+    <col min="18" max="18" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="3.77734375" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="3.88671875" bestFit="true" customWidth="true"/>
+    <col min="22" max="22" width="4" bestFit="true" customWidth="true"/>
+    <col min="23" max="23" width="3.77734375" bestFit="true" customWidth="true"/>
+    <col min="24" max="24" width="5.21875" bestFit="true" customWidth="true"/>
+    <col min="25" max="25" width="5.6640625" bestFit="true" customWidth="true"/>
+    <col min="26" max="26" width="6.88671875" bestFit="true" customWidth="true"/>
+    <col min="27" max="27" width="8.21875" bestFit="true" customWidth="true"/>
+    <col min="28" max="28" width="6.21875" bestFit="true" customWidth="true"/>
+    <col min="29" max="30" width="8.77734375" bestFit="true" customWidth="true"/>
+    <col min="31" max="31" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="32" max="32" width="8.33203125" bestFit="true" customWidth="true"/>
+    <col min="33" max="33" width="6.44140625" bestFit="true" customWidth="true"/>
+    <col min="34" max="34" width="8.109375" bestFit="true" customWidth="true"/>
+    <col min="35" max="35" width="8" bestFit="true" customWidth="true"/>
+    <col min="37" max="37" width="7.6640625" bestFit="true" customWidth="true"/>
+    <col min="38" max="38" width="8.109375" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" ht="43.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2425,7 +3086,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -2467,7 +3128,7 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -2509,7 +3170,7 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -2551,7 +3212,7 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -2593,7 +3254,7 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -2640,54 +3301,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" ht="43.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2803,7 +3427,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -2845,7 +3469,7 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -2887,7 +3511,7 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -2929,7 +3553,7 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -2971,7 +3595,7 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -3018,17 +3642,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+    <sheetView tabSelected="true" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AL2" sqref="AL2:AL6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" ht="43.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3144,7 +3768,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -3186,7 +3810,7 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -3228,7 +3852,7 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -3270,7 +3894,7 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -3312,7 +3936,7 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -3357,345 +3981,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2:AL6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Modello/nuovi modelli/IndiceMalmquist/Soluzione-Malmquist-4.xlsx
+++ b/Modello/nuovi modelli/IndiceMalmquist/Soluzione-Malmquist-4.xlsx
@@ -1058,115 +1058,115 @@
         <v>39</v>
       </c>
       <c r="B3" s="2">
-        <v>0.97802697677994876</v>
+        <v>0.94528752143088823</v>
       </c>
       <c r="C3" s="2">
-        <v>0.24873096446700507</v>
+        <v>0.26395939086294418</v>
       </c>
       <c r="D3" s="2">
-        <v>1.1545741090712742</v>
+        <v>1.0029996213062085</v>
       </c>
       <c r="E3" s="2">
-        <v>0.17073170731707318</v>
+        <v>0.18118466898954705</v>
       </c>
       <c r="F3" s="2">
-        <v>0.12219451371571072</v>
+        <v>0.12967581047381546</v>
       </c>
       <c r="G3" s="2">
-        <v>0.22171945701357465</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="H3" s="2">
-        <v>0.28049440147130422</v>
+        <v>0.26791799642992375</v>
       </c>
       <c r="I3" s="2">
-        <v>0.26538210570759607</v>
+        <v>0.25348328407477067</v>
       </c>
       <c r="J3" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.61904761904761907</v>
       </c>
       <c r="K3" s="2">
-        <v>0.028538147932440302</v>
+        <v>0.030285381479324403</v>
       </c>
       <c r="L3" s="2">
-        <v>0.058857413644863528</v>
+        <v>0.05621844948086184</v>
       </c>
       <c r="M3" s="2">
-        <v>0.017810070563667867</v>
+        <v>0.018799710773680405</v>
       </c>
       <c r="N3" s="2">
-        <v>1.4583578738257041</v>
+        <v>1.3912729456413073</v>
       </c>
       <c r="O3" s="2">
-        <v>0.027071823204419889</v>
+        <v>0.028729281767955802</v>
       </c>
       <c r="P3" s="2">
-        <v>0.034051424600416956</v>
+        <v>0.036136205698401667</v>
       </c>
       <c r="Q3" s="2">
-        <v>0.32896656727780249</v>
+        <v>0.31421683689652985</v>
       </c>
       <c r="R3" s="2">
-        <v>0.13442992689376265</v>
+        <v>0.12840255094104838</v>
       </c>
       <c r="S3" s="2">
-        <v>0.29518072289156627</v>
+        <v>0.31325301204819278</v>
       </c>
       <c r="T3" s="2">
-        <v>0.24019607843137256</v>
+        <v>0.25490196078431371</v>
       </c>
       <c r="U3" s="2">
-        <v>0.096267190569744601</v>
+        <v>0.10216110019646366</v>
       </c>
       <c r="V3" s="2">
-        <v>0.93297948902482919</v>
+        <v>0.89114789492623259</v>
       </c>
       <c r="W3" s="2">
-        <v>0.52127659574468088</v>
+        <v>0.55319148936170215</v>
       </c>
       <c r="X3" s="2">
-        <v>0.24747474747474749</v>
+        <v>0.26262626262626265</v>
       </c>
       <c r="Y3" s="2">
-        <v>1.4915917195374371</v>
+        <v>1.3520452094556719</v>
       </c>
       <c r="Z3" s="2">
-        <v>1.305751796363223</v>
+        <v>1.1393628730797658</v>
       </c>
       <c r="AA3" s="2">
-        <v>1.402694561454199</v>
+        <v>1.2222089443524478</v>
       </c>
       <c r="AB3" s="2">
-        <v>0.19838056680161945</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="AC3" s="2">
-        <v>0.034434293745607872</v>
+        <v>0.036542515811665496</v>
       </c>
       <c r="AD3" s="2">
-        <v>0.22897196261682243</v>
+        <v>0.24299065420560748</v>
       </c>
       <c r="AE3" s="2">
-        <v>0.25128205128205128</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="AF3" s="2">
-        <v>0.89397465735712434</v>
+        <v>0.8538919058701836</v>
       </c>
       <c r="AG3" s="2">
-        <v>0.14086917544467309</v>
+        <v>0.13455308571544999</v>
       </c>
       <c r="AH3" s="2">
-        <v>0.12563979865649855</v>
+        <v>0.12000654184661792</v>
       </c>
       <c r="AI3" s="2">
-        <v>0.13535911602209943</v>
+        <v>0.143646408839779</v>
       </c>
       <c r="AJ3" s="2">
-        <v>0.73641979691827031</v>
+        <v>0.70340126393524105</v>
       </c>
       <c r="AK3" s="2">
-        <v>0.27501988862370724</v>
+        <v>0.2626889419252188</v>
       </c>
       <c r="AL3" s="2">
-        <v>0.083431545667729909</v>
+        <v>0.079690761872966212</v>
       </c>
     </row>
     <row r="4">
@@ -1174,115 +1174,115 @@
         <v>40</v>
       </c>
       <c r="B4" s="2">
-        <v>1.1428571428571428</v>
+        <v>1.0769230769230769</v>
       </c>
       <c r="C4" s="2">
-        <v>0.29166666666666669</v>
+        <v>0.28865979381443296</v>
       </c>
       <c r="D4" s="2">
-        <v>0.91953190966034348</v>
+        <v>1.1408002003192739</v>
       </c>
       <c r="E4" s="2">
-        <v>0.19243986254295534</v>
+        <v>0.20363636363636364</v>
       </c>
       <c r="F4" s="2">
-        <v>0.13759213759213759</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="G4" s="2">
-        <v>0.2413793103448276</v>
+        <v>1.3546884100174725</v>
       </c>
       <c r="H4" s="2">
-        <v>0.26674311926605504</v>
+        <v>0.28019220216026663</v>
       </c>
       <c r="I4" s="2">
-        <v>0.24711381825908352</v>
+        <v>0.27101484924200253</v>
       </c>
       <c r="J4" s="2">
-        <v>0.65116279069767447</v>
+        <v>0.67469879518072284</v>
       </c>
       <c r="K4" s="2">
-        <v>0.031513787281935844</v>
+        <v>0.033653846153846152</v>
       </c>
       <c r="L4" s="2">
-        <v>0.054894885760213147</v>
+        <v>0.064573642454378327</v>
       </c>
       <c r="M4" s="2">
-        <v>0.020129403306973402</v>
+        <v>0.020452885317750184</v>
       </c>
       <c r="N4" s="2">
-        <v>1.2943634061195055</v>
+        <v>1.5265495530552184</v>
       </c>
       <c r="O4" s="2">
-        <v>0.031478358628442948</v>
+        <v>0.029504741833508957</v>
       </c>
       <c r="P4" s="2">
-        <v>0.039603960396039604</v>
+        <v>0.039660056657223795</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.3147260016537623</v>
+        <v>0.33574441468460814</v>
       </c>
       <c r="R4" s="2">
-        <v>0.13876809672800552</v>
+        <v>0.13148010903289831</v>
       </c>
       <c r="S4" s="2">
-        <v>0.32369942196531792</v>
+        <v>0.32000000000000001</v>
       </c>
       <c r="T4" s="2">
-        <v>0.27450980392156865</v>
+        <v>0.26415094339622641</v>
       </c>
       <c r="U4" s="2">
-        <v>0.11914893617021277</v>
+        <v>0.10748560460652591</v>
       </c>
       <c r="V4" s="2">
-        <v>0.95254129317013247</v>
+        <v>0.90717628705148212</v>
       </c>
       <c r="W4" s="2">
-        <v>0.68292682926829273</v>
+        <v>0.57731958762886593</v>
       </c>
       <c r="X4" s="2">
-        <v>0.3146067415730337</v>
+        <v>0.29629629629629628</v>
       </c>
       <c r="Y4" s="2">
-        <v>1.2102378266995215</v>
+        <v>1.4043695505891449</v>
       </c>
       <c r="Z4" s="2">
-        <v>1.0365636332267985</v>
+        <v>0.97498040679231202</v>
       </c>
       <c r="AA4" s="2">
-        <v>0.96875976145621101</v>
+        <v>1.2061128234166179</v>
       </c>
       <c r="AB4" s="2">
-        <v>0.20895522388059701</v>
+        <v>0.23333333333333334</v>
       </c>
       <c r="AC4" s="2">
-        <v>0.039575971731448764</v>
+        <v>0.039381153305203941</v>
       </c>
       <c r="AD4" s="2">
-        <v>0.25454545454545452</v>
+        <v>0.25925925925925924</v>
       </c>
       <c r="AE4" s="2">
-        <v>0.26923076923076922</v>
+        <v>0.28282828282828282</v>
       </c>
       <c r="AF4" s="2">
-        <v>0.84177087940809847</v>
+        <v>0.94934470092059331</v>
       </c>
       <c r="AG4" s="2">
-        <v>0.12508290461935578</v>
+        <v>0.14652276163279018</v>
       </c>
       <c r="AH4" s="2">
-        <v>0.1280069463977791</v>
+        <v>0.15027565611899157</v>
       </c>
       <c r="AI4" s="2">
-        <v>0.15469613259668508</v>
+        <v>0.16138328530259366</v>
       </c>
       <c r="AJ4" s="2">
-        <v>0.68966198853528371</v>
+        <v>0.72168786844554766</v>
       </c>
       <c r="AK4" s="2">
-        <v>0.27223074722359492</v>
+        <v>0.24745850867653318</v>
       </c>
       <c r="AL4" s="2">
-        <v>0.13428527442075283</v>
+        <v>0.084035165188069527</v>
       </c>
     </row>
     <row r="5">
@@ -1290,158 +1290,232 @@
         <v>41</v>
       </c>
       <c r="B5" s="2">
-        <v>0.99999999999999989</v>
+        <v>0.98437002604375134</v>
       </c>
       <c r="C5" s="2">
-        <v>0.25520833333333331</v>
+        <v>0.24742268041237114</v>
       </c>
       <c r="D5" s="2">
-        <v>0.88768935939985294</v>
+        <v>0.82717469844112468</v>
       </c>
       <c r="E5" s="2">
-        <v>0.1683848797250859</v>
+        <v>0.17454545454545456</v>
       </c>
       <c r="F5" s="2">
-        <v>0.12039312039312039</v>
+        <v>0.12244897959183673</v>
       </c>
       <c r="G5" s="2">
-        <v>0.21120689655172414</v>
+        <v>0.46469941111758234</v>
       </c>
       <c r="H5" s="2">
-        <v>0.20839760682253908</v>
+        <v>0.22325581395348837</v>
       </c>
       <c r="I5" s="2">
-        <v>0.21582631195324881</v>
+        <v>0.20689655172413793</v>
       </c>
       <c r="J5" s="2">
-        <v>0.56976744186046513</v>
+        <v>0.57831325301204828</v>
       </c>
       <c r="K5" s="2">
-        <v>0.027574563871693866</v>
+        <v>0.028846153846153848</v>
       </c>
       <c r="L5" s="2">
-        <v>0.045583806978440708</v>
+        <v>0.052689352360043906</v>
       </c>
       <c r="M5" s="2">
-        <v>0.017613227893601726</v>
+        <v>0.017531044558071585</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>0.93504413465198644</v>
       </c>
       <c r="O5" s="2">
-        <v>0.027543563799887576</v>
+        <v>0.025289778714436245</v>
       </c>
       <c r="P5" s="2">
-        <v>0.034653465346534656</v>
+        <v>0.0339943342776204</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.27577521340182609</v>
+        <v>0.24615384615384617</v>
       </c>
       <c r="R5" s="2">
-        <v>0.10487585174853624</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="S5" s="2">
-        <v>0.28323699421965315</v>
+        <v>0.2742857142857143</v>
       </c>
       <c r="T5" s="2">
-        <v>0.24019607843137256</v>
+        <v>0.22641509433962265</v>
       </c>
       <c r="U5" s="2">
-        <v>0.10564304645194084</v>
+        <v>0.092130518234165071</v>
       </c>
       <c r="V5" s="2">
-        <v>0.61349799101867175</v>
+        <v>0.62081750261974211</v>
       </c>
       <c r="W5" s="2">
-        <v>0.59756097560975607</v>
+        <v>0.49484536082474229</v>
       </c>
       <c r="X5" s="2">
-        <v>0.2752808988764045</v>
+        <v>0.25396825396825395</v>
       </c>
       <c r="Y5" s="2">
         <v>1</v>
       </c>
       <c r="Z5" s="2">
+        <v>0.81728349818667079</v>
+      </c>
+      <c r="AA5" s="2">
         <v>1</v>
       </c>
-      <c r="AA5" s="2">
-        <v>0.95863884160062773</v>
-      </c>
       <c r="AB5" s="2">
-        <v>0.18283582089552239</v>
+        <v>0.20000000000000001</v>
       </c>
       <c r="AC5" s="2">
-        <v>0.034628975265017667</v>
+        <v>0.03375527426160338</v>
       </c>
       <c r="AD5" s="2">
-        <v>0.22272727272727272</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="AE5" s="2">
-        <v>0.2355769230769231</v>
+        <v>0.24242424242424243</v>
       </c>
       <c r="AF5" s="2">
-        <v>0.61946706442177579</v>
+        <v>0.60598049015489408</v>
       </c>
       <c r="AG5" s="2">
-        <v>0.10610587376058753</v>
+        <v>0.11374407582938389</v>
       </c>
       <c r="AH5" s="2">
-        <v>0.11256082383423929</v>
+        <v>0.11162790697674418</v>
       </c>
       <c r="AI5" s="2">
-        <v>0.13535911602209943</v>
+        <v>0.13832853025936598</v>
       </c>
       <c r="AJ5" s="2">
-        <v>0.57436929631319023</v>
+        <v>0.57091528998994268</v>
       </c>
       <c r="AK5" s="2">
-        <v>0.19239072494669512</v>
+        <v>0.19591836734693879</v>
       </c>
       <c r="AL5" s="2">
-        <v>0.075867717047270328</v>
+        <v>0.051739561893414644</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
+      <c r="B6" s="2">
+        <v>0.86404750908334538</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.79591836734693888</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.72725785729905268</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.79591836734693899</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.79591836734693888</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.31852829982666608</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.75408939355471283</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.72249736062784953</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.79591836734693899</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.79591836734693888</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.77222467611344847</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.79591836734693866</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.57283181145735462</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.79591836734693877</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.79591836734693888</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.69386331848121219</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.71980696377425846</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.79591836734693877</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.79591836734693866</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0.79591836734693888</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.64766191907394932</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.79591836734693888</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.79591836734693888</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.70177364861286462</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0.84018409286402984</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0.83139556115880831</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0.79591836734693866</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0.79591836734693888</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0.79591836734693877</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0.79591836734693888</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0.60410274753854809</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0.7346826609963012</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0.70200407409351628</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>0.79591836734693877</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>0.74868368425360754</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0.74928814467379345</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0.58269029984603871</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1615,211 +1689,581 @@
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.34348561809080652</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.24390243902439024</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.1396508728179551</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.25339366515837103</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.28309082057662144</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.26783863662534063</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.032615026208503206</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.059402232052915491</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.020245842371655821</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1.4876693517856918</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.030939226519337018</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.048644892286309936</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.34635416712239581</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.13567428838077464</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.41465863518239621</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.34313725490196079</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0.1100196463654224</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0.86419753086419748</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.28282828282828282</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1.4583333333333333</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1.1475409836065573</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1.2280701754385965</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0.22672064777327935</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0.039353478566408993</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0.26168224299065418</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0.35897435897435898</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0.14217314235651271</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0.15873015873015872</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>0.15469613259668508</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>0.7865168539325843</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>0.2798102985377145</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>0.070422535211267609</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
+      <c r="B3" s="2">
+        <v>1.2098214288643974</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.3534263960322811</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.0029996213062085</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.24390243902439024</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.12967581047381546</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.28712606844367655</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.25348328407477067</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.61904761904761907</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.030285381479324403</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.05621844948086184</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.018799710773680405</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.440217391627038</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.028729281767955802</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.048644892286309936</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.36165364592793781</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.12840255094104838</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.42055722902743786</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0.34313725490196079</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0.12757858548816614</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0.86419753086419748</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0.26641414141808711</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1.4583333333333333</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1.1475409836065573</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1.2280701754385965</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0.23861336035314398</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0.036542515811665496</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0.24299065420560748</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0.35897435897435898</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0.13455308571544999</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0.15873015873015872</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>0.143646408839779</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>0.7865168539325843</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>0.28379065048192964</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>0.070422535211267609</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
+      <c r="B4" s="2">
+        <v>1.0769230769230769</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.3367697598510882</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.1408002003192739</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.20363636363636364</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.3546884100174725</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.28019220216026663</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.27101484924200253</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.67469879518072284</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.033653846153846152</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.064573642454378327</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.020452885317750184</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.1666666680555555</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.029504741833508957</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.039660056657223795</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.33574441468460814</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.13148010903289831</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.32468553509564985</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0.10748560460652591</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0.88607594936708856</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.72164948453608246</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.29629629629629628</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1.4583333333333333</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1.2068965517241379</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0.039381153305203941</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0.25925925925925924</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0.33585858630050502</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0.84337349397590367</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>0.14652276163279018</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0.16279069767441862</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>0.16138328530259366</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0.80038759814276472</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>0.24745850867653318</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>0.07113821138211382</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
+      <c r="B5" s="2">
+        <v>0.98437002604375134</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.24742268041237114</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.82717469844112468</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.17454545454545456</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.12244897959183673</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.46469941111758234</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.22325581395348837</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.20689655172413793</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.57831325301204828</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.028846153846153848</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.052689352360043906</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.017531044558071585</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.93504413465198644</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.025289778714436245</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0339943342776204</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.24615384615384617</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.2742857142857143</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.22641509433962265</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.092130518234165071</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.62081750261974211</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.49484536082474229</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.25396825396825395</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0.81728349818667079</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0.03375527426160338</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0.24242424242424243</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0.60598049015489408</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0.11374407582938389</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0.11162790697674418</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0.13832853025936598</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>0.57091528998994268</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0.19591836734693879</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0.051739561893414644</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
+      <c r="B6" s="2">
+        <v>1.105846812050997</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.75595656803329125</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.72725785729905268</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.79591836734693888</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.31852829982666608</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.80815296363666766</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.72249736062784953</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.79591836734693899</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.79591836734693888</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.77222467611344847</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.79591836734693866</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.77590214986474026</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.79591836734693877</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.85714285714285732</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.76554418131858126</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.71980696377425846</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.69546869505726794</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.69733656065990912</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0.99394132673688629</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.70063689581370903</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.68571428571428572</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.80739795919563129</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.68571428571428583</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0.81728349818667079</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0.90210459194734538</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0.79591836734693888</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0.79591836734693877</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0.72180451032845272</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0.71851972404080289</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0.7346826609963012</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0.68571428571428561</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>0.79591836734693877</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>0.71329852100995306</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0.802984478115774</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0.72731041290171439</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1993,211 +2437,581 @@
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.18155642090838922</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.11453677005651883</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.10109038931437789</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.13910558841119011</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.28309082057662144</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.26783863662534063</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.55117032200310678</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.01983906231194163</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.059402232052915491</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.017974930921792649</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1.4876693517856918</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.023336153648071543</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.032792688925300843</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.33201167290490391</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.13567428838077464</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.22922780430116949</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.18545193610970848</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0.085294501124547742</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0.94161568909679749</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.37557859987800069</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.1280680288755659</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0.87848810915727316</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0.92100080350744162</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>0.93220982958821774</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0.14822839663522813</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0.027531188599294557</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0.16449787835926449</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0.18508792870215646</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0.90224980605120242</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0.14217314235651271</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0.12680279361079647</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>0.071512998326102556</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>0.74323652630831505</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>0.2775656324582339</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>0.084203836515681127</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
+      <c r="B3" s="2">
+        <v>0.91502421828700042</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.17182553793049618</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.87472415557551986</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.10839794059232594</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.095672245777035189</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.13164994351784171</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.26791799642992375</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.25348328407477067</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.52162923567046682</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.018775747708234813</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.05621844948086184</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.017011528204000956</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.3912729456413073</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.022085405372866792</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.031035098547246599</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.31421683689652985</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.12840255094104838</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.21694187727213002</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0.17551226512876392</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0.080722970109847136</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0.89114789492623259</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0.35544870644802473</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0.12120396427260492</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0.79687999460875658</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>0.80211571790806135</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>0.81087353721767352</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0.14028379641430877</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0.026055598955250968</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0.15568128241395568</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0.1751677674332246</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0.8538919058701836</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0.13455308571544999</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0.12000654184661792</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>0.067680114781539305</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>0.70340126393524105</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>0.2626889419252188</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>0.079690761872966212</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
+      <c r="B4" s="2">
+        <v>1.0566323440339189</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.17171261473345747</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.1408002003192739</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.1160569252177384</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.10840958876442898</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.3546884100174725</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.28019220216026663</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.27101484924200253</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.56865781109933988</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.021397687896721966</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.064573642454378327</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.018120204105480466</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.5265495530552184</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.023236660065889373</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.030605531627470418</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.33574441468460814</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.13148010903289831</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.21839692028418517</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.1718648659743032</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0.10067811282643198</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0.90717628705148212</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.40893907132113066</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.12510757314974183</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0.68912398472381964</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0.92346356190296608</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1.0874292952854421</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0.16220362622036263</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0.030776287527620596</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0.15500696028196548</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0.18772530803307211</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0.94934470092059331</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>0.14652276163279018</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0.15027565611899157</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>0.075511035923111064</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0.72168786844554766</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>0.24745850867653318</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>0.084035165188069527</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
+      <c r="B5" s="2">
+        <v>0.36245709670906517</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.058902660093673356</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.039811062386002648</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.037187792916660196</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.46469941111758239</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.096114464684860748</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.092966352938130326</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.19506696004128976</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.0073400590802694381</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.022150727355731859</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.0062157822528640114</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.57037331215250198</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.0079708825801639242</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.01049863010494244</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.11517056663084795</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.045101684482910229</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.074916799682847701</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.058954886909404376</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.034535661039773</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.31118911423123591</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.14027856459143209</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.042915710460891182</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0.47461996034368803</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0.68691409986607999</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0.055640787230745392</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0.010557204582776512</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0.053172111482984334</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0.064395501910074079</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0.32565416534397534</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0.050261772775631333</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0.051549129960374432</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0.025902586651564943</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>0.24756093356775949</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0.084885810203792142</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0.028826622777086426</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
+      <c r="B6" s="2">
+        <v>0.31388119382435026</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.32464506568748197</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.76676367634815656</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.32464506568748203</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.32464506568748197</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.32464506568748197</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.32464506568748208</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.32464506568748203</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.32464506568748203</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.32464506568748197</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.32464506568748197</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.32464506568748208</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.3494251934202588</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.32464506568748203</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.32464506568748197</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.32464506568748197</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.32464506568748197</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.32464506568748203</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.32464506568748192</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0.32464506568748203</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.32464506568748203</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.32464506568748197</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.32464506568748203</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.62474914401831005</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0.64782795522464243</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0.79990501721027385</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0.32464506568748197</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0.32464506568748197</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0.32464506568748203</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0.32464506568748197</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0.32464506568748203</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0.32464506568748203</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0.32464506568748197</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>0.32464506568748203</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>0.32464506568748197</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0.32464506568748203</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0.32464506568748203</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2334,211 +3148,581 @@
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.38470728793309444</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.41709844559585496</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1.5480769230769231</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.28853046594982085</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.6625514403292182</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.86792452830188682</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.29379562043795621</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.46065808297567956</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.43809523809523815</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1.4876693517856918</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.71714922048997765</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.54855195911413968</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1.9053254437869827</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1.2014925373134329</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.56293706293706303</v>
+      </c>
+      <c r="T2" s="2">
+        <v>1.4504504504504503</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1.1258741258741261</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1.2677165354330711</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.30377358490566042</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1.3718693477648767</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1.1367486593718548</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1.5784426337141395</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0.30291627469426152</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0.27427597955706984</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>1.1709090909090911</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0.90960451977401147</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>1.4703196347031966</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0.73853211009174313</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>0.25677830940988838</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>0.74323652630831505</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>0.55805892547660318</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>3.1568627450980395</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
+      <c r="B3" s="2">
+        <v>0.96026899668186405</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.38470728793309444</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.0029996213062085</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.41709844559585496</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.5480769230769231</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.28853046594982085</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.6625514403292182</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.86792452830188682</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.29379562043795621</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.46065808297567956</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.43809523809523815</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.3912729456413073</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.71714922048997765</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.54855195911413968</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1.9053254437869827</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1.2014925373134329</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.56293706293706303</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1.4504504504504503</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1.1258741258741261</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1.2677165354330711</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0.55319148936170215</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0.30377358490566042</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1.3520452094556719</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1.1393628730797658</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1.4919610928909233</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0.30291627469426152</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0.27427597955706984</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>1.1709090909090911</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0.90960451977401147</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>1.4703196347031966</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0.73853211009174313</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>0.25677830940988838</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>0.70340126393524105</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>0.55805892547660318</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>3.1568627450980395</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
+      <c r="B4" s="2">
+        <v>1.0769230769230769</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.38470728793309444</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.1408002003192739</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.41709844559585496</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.5480769230769231</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.3546884100174725</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.6625514403292182</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.86792452830188682</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.29379562043795621</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.46065808297567956</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.43809523809523815</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.5265495530552184</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.71714922048997765</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.54855195911413968</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1.9053254437869827</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1.2014925373134329</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.56293706293706303</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1.4504504504504503</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1.1258741258741261</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1.2677165354330711</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.57731958762886593</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.30377358490566042</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1.4043695505891449</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0.97498040679231202</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1.4221987241953653</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0.30291627469426152</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0.27427597955706984</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>1.1709090909090911</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0.90960451977401147</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>1.4703196347031966</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0.73853211009174313</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>0.25677830940988838</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0.72168786844554766</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>0.55805892547660318</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>3.1568627450980395</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
+      <c r="B5" s="2">
+        <v>0.98437002604375134</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.24742268041237114</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.85285948247625276</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.17454545454545456</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.25961538461538464</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.46469941111758234</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.23339622641509433</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.21298209366391185</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.57831325301204828</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.049270072992700732</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.077253218884120164</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.073469387755102047</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.93504413465198644</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.12026726057906457</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.091993185689948895</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.31952662721893493</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.20149253731343283</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.2742857142857143</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.26991053894828709</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.18881118881118883</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.62081750261974211</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.49484536082474229</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.25396825396825395</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0.81728349818667079</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0.045996592844974447</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0.25816550140874461</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0.2661932429524424</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0.60598049015489408</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0.13775510204081631</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0.13358531317494601</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0.13832853025936598</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>0.57091528998994268</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0.20287002870028703</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0.52941176470588247</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
+      <c r="B6" s="2">
+        <v>0.87774144461039538</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.64314529038867885</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.74984010145833258</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.41847543760587236</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.16770186335403728</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.34303047673640957</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.35226883862650876</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.37040364115462932</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.66631744368779466</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.16770186335403728</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.16770186335403725</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.16770186335403728</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.57283181145735462</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.16770186335403725</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.16770186335403728</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.16770186335403725</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.16770186335403728</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.48724046140195204</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.18608739020658308</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0.16770186335403725</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.48971318529631824</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.79591836734693888</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.83604456275263705</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.70177364861286451</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0.84018409286402984</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0.66461235494385218</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0.66024844720496889</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0.16770186335403728</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0.22048295927765452</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0.2926472298297037</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0.41214201038485021</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0.16770186335403728</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0.18087949237352938</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>0.53870800293554322</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>0.74868368425360754</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0.36352797068343357</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0.16770186335403731</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2712,211 +3896,581 @@
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>120000000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.1396508728179551</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.25339366515837103</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.26783863662534063</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.032615026208503206</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.082758620689655171</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.020245842371655821</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1.4876693517856918</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.030939226519337018</v>
+      </c>
+      <c r="P2" s="2">
+        <v>120000000</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>4</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.13567428838077464</v>
+      </c>
+      <c r="S2" s="2">
+        <v>12</v>
+      </c>
+      <c r="T2" s="2">
+        <v>120000000</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="V2" s="2">
+        <v>120000000</v>
+      </c>
+      <c r="W2" s="2">
+        <v>120000000</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.28282828282828282</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>35573754.766002826</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>5642844.7671207376</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>4505319.1188281402</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0.22672064777327935</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0.077419354838709681</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0.26168224299065418</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>120000000</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>120000000</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0.14217314235651271</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>120000000</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>0.15469613259668508</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>120000000</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>12</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>120000000</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
+      <c r="B3" s="2">
+        <v>7.5839550225979391</v>
+      </c>
+      <c r="C3" s="2">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.0029996213062085</v>
+      </c>
+      <c r="E3" s="2">
+        <v>960000000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.81355932203389836</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.58536585365853655</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6.4000000000000004</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.7441860465116279</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.61904761904761907</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.068036853295535077</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.66206896551724137</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.062540716612377853</v>
+      </c>
+      <c r="N3" s="2">
+        <v>4.447247955217378</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.11970074812967581</v>
+      </c>
+      <c r="P3" s="2">
+        <v>960000000</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>32</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.98969072164948457</v>
+      </c>
+      <c r="S3" s="2">
+        <v>96</v>
+      </c>
+      <c r="T3" s="2">
+        <v>960000000</v>
+      </c>
+      <c r="U3" s="2">
+        <v>3.5555555555555554</v>
+      </c>
+      <c r="V3" s="2">
+        <v>960000000</v>
+      </c>
+      <c r="W3" s="2">
+        <v>960000000</v>
+      </c>
+      <c r="X3" s="2">
+        <v>1.0434782608695652</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>272097597.84337854</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>26606120.55278055</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>17818143.48333155</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>1.6271186440677967</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0.61935483870967745</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0.34163701067615659</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>960000000</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>960000000</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>960000000</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>0.55813953488372092</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>960000000</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>96</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>960000000</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
+      <c r="B4" s="2">
+        <v>1.0769230769230769</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1406217.4327959691</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.3546884100174725</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.52173913043478259</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.27101484924200253</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.67469879518072284</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.033653846153846152</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.065217391304347824</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.020452885317750184</v>
+      </c>
+      <c r="N4" s="2">
+        <v>2.6010064889291957</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.029504741833508957</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.33574441468460814</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.13148010903289831</v>
+      </c>
+      <c r="S4" s="2">
+        <v>120000000</v>
+      </c>
+      <c r="T4" s="2">
+        <v>12</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0.14999999999999999</v>
+      </c>
+      <c r="V4" s="2">
+        <v>120000000</v>
+      </c>
+      <c r="W4" s="2">
+        <v>120000000</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.29629629629629628</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>22202242.858304583</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>15011756.799514836</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>389625.92677738267</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0.039381153305203941</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0.25925925925925924</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>4</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>120000000</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>0.14652276163279018</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>120000000</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>0.16138328530259366</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>12</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>120000000</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
+      <c r="B5" s="2">
+        <v>0.98437002604375134</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.24742268041237114</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.82717469844112468</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.17454545454545456</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.12244897959183673</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.46469941111758234</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.22325581395348837</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.20689655172413793</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.57831325301204828</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.028846153846153848</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.052689352360043906</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.017531044558071585</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.93504413465198644</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.025289778714436245</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0339943342776204</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.24615384615384617</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.2742857142857143</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.22641509433962265</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.092130518234165071</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.62081750261974211</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.49484536082474229</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.25396825396825395</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0.81728349818667079</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0.03375527426160338</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0.24242424242424243</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0.60598049015489408</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0.11374407582938389</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0.11162790697674418</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0.13832853025936598</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>0.57091528998994268</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0.19591836734693879</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0.051739561893414644</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
+      <c r="B6" s="2">
+        <v>6.9321738600301313</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.65979381443298968</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5.8999119904304422e-007</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3.7236363636363641</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4.9934278796264282</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.79243625810536444</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3.4232558139534883</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2.1211357442494174</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.79591836734693899</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1.7880501598229654</v>
+      </c>
+      <c r="L6" s="2">
+        <v>6.4632272228320531</v>
+      </c>
+      <c r="M6" s="2">
+        <v>2.6477697267832214</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1.074671181078741</v>
+      </c>
+      <c r="O6" s="2">
+        <v>3.3161992976741814</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.47592067988668563</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>5.8652673971676546</v>
+      </c>
+      <c r="R6" s="2">
+        <v>5.5480694752952218</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1.8285714285714289e-008</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.15094339622641509</v>
+      </c>
+      <c r="U6" s="2">
+        <v>4.9136276391554699</v>
+      </c>
+      <c r="V6" s="2">
+        <v>4.1387833507982807e-008</v>
+      </c>
+      <c r="W6" s="2">
+        <v>3.2989690721649486e-008</v>
+      </c>
+      <c r="X6" s="2">
+        <v>3.162377994676131</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>3.4450708035329903e-007</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>2.5669928654670468e-007</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>1.0150537625380983e-005</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>6.151504669664476</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>6.8571428571428577</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>1.1190355145616966</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0.48484848484848481</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>4.0398699343659607e-008</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>1.4891371490154499</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>7.4418604651162798e-009</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>3.0925486473659229</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>0.38061019332662843</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>3.6571428571428579</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>3.4493041262276429e-009</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3090,211 +4644,581 @@
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.28426395939086296</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.1951219512195122</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.61001141270264914</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.95542145502395481</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.31355591182048714</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1.2093092376883776</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1.480814009739736</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.34280875781505432</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1.5035653903426422</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.80757591697108422</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.038915913829047952</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.33201167290490391</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.13567428838077464</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.33734939759036142</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.27450980392156865</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0.16245725335297539</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0.94161568909679749</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="X2" s="2">
+        <v>1.0017708271155414</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1.3718693477648767</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1.1367486593718548</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1.2188487640074248</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0.56530765774985969</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0.2181670695620998</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>1.3567940091156734</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0.28717948717948716</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0.90224980605120242</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>1.431720756085213</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0.12698412698412698</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>0.94116366723136569</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>0.74323652630831505</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>0.2775656324582339</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>0.084203836515681127</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
+      <c r="B3" s="2">
+        <v>0.94528752143088823</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.26395939086294418</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.0029996213062085</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.18118466898954705</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.16753629943832007</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.44763056624518965</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.26791799642992375</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.39255295190860029</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.3716040743204447</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.55880774443579595</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.10201619461049316</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.42399172347075925</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.3912729456413073</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.028729281767955802</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.036136205698401667</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.31421683689652985</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.12840255094104838</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.31325301204819278</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0.25490196078431371</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0.10216110019646366</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0.89114789492623259</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0.55319148936170215</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0.26262626262626265</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1.3520452094556719</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1.1393628730797658</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1.2222089443524478</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0.065154964173360211</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0.83956677439077654</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0.8538919058701836</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0.7072209059206026</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0.12000654184661792</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>0.28852790829761965</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>0.70340126393524105</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>0.2626889419252188</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>0.079690761872966212</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
+      <c r="B4" s="2">
+        <v>1.4001180821831591</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.28865979381443296</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.1408002003192739</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.33304602160807018</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.84190038457930771</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2.4237864596007319</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.39075376547729396</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1.1123885690865714</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1.1483995822103539</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2.2453690926548964</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.46299184585881986</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.84793389215256498</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.5265495530552184</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.30638056874236036</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.051001731709630793</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.72129311476949221</v>
+      </c>
+      <c r="R4" s="2">
+        <v>10.592285755302916</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.32000000000000001</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.26415094339622641</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0.34626174606276755</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0.90717628705148212</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.57731958762886593</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.79527665739090569</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1.4043695505891449</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0.97498040679231202</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1.2061128234166179</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0.61145217771941351</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0.54241342084290289</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0.75353225845674954</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0.28282828282828282</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0.94934470092059331</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>1.3485986027902375</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0.15027565611899157</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>1.3766966078250684</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0.72168786844554766</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>0.38948776568167942</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>0.084035165188069527</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.24828178692099798</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.82717469844112468</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.17939393938383838</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.1481159502907308</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.6083049607091553</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.22771317827983689</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.3115094844879458</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.068820449305016032</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.11137890267222163</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.94085034903577713</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.03461402266058413</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.30236429175697399</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.2742857142857143</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.22661163520067645</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.098528470887982514</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.62081750261974211</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.49484536082474229</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.26829805995760764</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0.81728349818667079</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0.21093749999403213</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0.055932709457919838</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0.23611111110628857</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0.24305555553516942</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0.60598049015489408</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0.24304552942911992</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0.11162790697674418</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0.18803632089900663</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>0.57101373458360727</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0.20068027209679706</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0.051739561893414644</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
+      <c r="B6" s="2">
+        <v>0.67514842745044168</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.79868197272290431</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.72725785729905268</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.50017137501416886</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.0483183482410212</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.11758495248773079</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.49793412001192444</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.090902459492932741</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.1943613491050593</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.044234525440092889</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.055692705928282966</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.5702951307874109</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.63020590464525383</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.3967297914617689</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.79591836734693877</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.79660926863911252</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0.17893845492925628</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.64766191907394932</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.79591836734693888</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.088444141346827015</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.70177364861286462</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0.84018409286402984</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0.83139556115880831</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0.12847328242237449</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0.030795959734647056</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0.1938902192602461</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0.79799107136164049</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0.60410274753854809</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0.089022892439391987</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0.70200407409351628</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>0.041872238302172606</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>0.7488127819715561</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0.48762611931369632</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0.58269029984603871</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3432,210 +5356,570 @@
         <v>38</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
+      <c r="C2" s="2">
+        <v>0.28426395939086296</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.1951219512195122</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1.0610550600778808</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.70199509984330366</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1.1475752006552047</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.92902472220400367</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1.0710547521439167</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.8050420480519529</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.85590498104703749</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.038915913829047952</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.33201167290490391</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1.3014538334894399</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.33734939759036142</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.27450980392156865</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1.0838615493340276</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0.94161568909679749</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="X2" s="2">
+        <v>1.2025133494302698</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1.3718693477648767</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1.1367486593718548</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1.2188487640074248</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>2.2205648456108058</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>1.2826195782842866</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>1.2248575353273023</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0.28717948717948716</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0.90224980605120242</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>1.3214601040750795</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0.12698412698412698</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>1.1785648491701726</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>0.74323652630831505</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>0.2775656324582339</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>0.084203836515681127</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
+      <c r="C3" s="2">
+        <v>0.26395939086294418</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.0029996213062085</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.18118466898954705</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.0151639553271878</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.81390932057586862</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.26791799642992375</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1.1949410094160533</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.83199415703123147</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1.0680464363385953</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.92857893488823784</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.75159023949141257</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.1962445788670195</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.95834589917299995</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.036136205698401667</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.31421683689652985</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.189083598759719</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.31325301204819278</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0.25490196078431371</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0.10216110019646366</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0.89114789492623259</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0.55319148936170215</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0.26262626262626265</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1.3520452094556719</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1.1393628730797658</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1.2222089443524478</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0.54650650702990933</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>1.3386022968597593</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0.8538919058701836</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>1.4315990340198923</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0.12000654184661792</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>1.2248680016050575</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>0.70340126393524105</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>0.2626889419252188</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>0.079690761872966212</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
+      <c r="C4" s="2">
+        <v>0.28865979381443296</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.1408002003192739</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.3557446582226096</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.0170099509646779</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5.1697384112372697</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1.0640872809413422</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.93012525982735939</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2.8703075049285762</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1.2383203646921539</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1.123734711469087</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1.0086239018261893</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.1067825408674417</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2.3498703918757835</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.84966666330703566</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.5486453903180849</v>
+      </c>
+      <c r="R4" s="2">
+        <v>14.698948335740953</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.32000000000000001</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.26415094339622641</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1.1310662721570404</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0.90717628705148212</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.57731958762886593</v>
+      </c>
+      <c r="X4" s="2">
+        <v>1.3170719510381454</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1.4043695505891449</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0.97498040679231202</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1.2061128234166179</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>2.2987681089389849</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>1.2925101777733461</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>1.2954137328725557</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0.28282828282828282</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0.94934470092059331</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>1.2750163865510649</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0.15027565611899157</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>1.2398368135770481</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0.72168786844554766</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>1.0954526597940559</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>0.084035165188069527</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
+      <c r="C5" s="2">
+        <v>0.26584574220848051</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.82717469844112468</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.18894172491173269</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.1748625692161207</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.25014091186942844</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.43119808426144401</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.62670373467023932</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.031262026394798838</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.092867876177947214</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.15265400405875826</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.027407854556372957</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.036775726322085533</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.27558624897566503</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.11127869009550195</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.2742857142857143</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.23905922306741628</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.09980011365147419</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.62081750261974211</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.49484536082474229</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.27508010554035522</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0.81728349818667079</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0.21662155510904094</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0.057801418328801986</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0.24070881225411747</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0.25983044676837203</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0.60598049015489408</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0.25523482603857262</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0.11162790697674418</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0.21940700101602267</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>0.59665929203542722</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0.22362630233365263</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0.051739561893414644</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
+      <c r="C6" s="2">
+        <v>0.85518234929819881</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.72725785729905268</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.12940924115315952</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.16450152225336553</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.22427113084737055</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.054881782570216114</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.59628595319717048</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.18165783440971947</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.026963374612666225</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.071648791964680977</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.11375227105178848</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1.3425767388781749</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.013059539603838414</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.04019092451472444</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.47538109697042036</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.0010998940022484227</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.79591836734693877</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.84036635047678465</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0.0083167708441970571</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.64766191907394932</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.79591836734693888</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.045613975867308997</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.70177364861286462</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0.84018409286402984</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0.83139556115880831</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0.0089340717515518277</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0.01905469475866501</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0.20307173562874239</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0.8530657780379971</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0.60410274753854809</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0.21686601870448813</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0.70200407409351628</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>0.18391695124724425</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>0.78244370896617965</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0.19319921972065981</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0.58269029984603871</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3772,211 +6056,581 @@
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.433461525874828</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.97840115955667672</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.1396508728179551</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.9298529229796324</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1.155863471221616</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.92740327697166791</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.242033251168114</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.45847586340948498</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.14603836051525731</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1.4876693517856918</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.064622640103472823</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.15385189795033308</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.33201167290490391</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.13567428838077464</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1.0275574039739284</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.27450980392156865</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0.1100196463654224</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0.94161568909679749</v>
+      </c>
+      <c r="W2" s="2">
+        <v>1.1415711765780014</v>
+      </c>
+      <c r="X2" s="2">
+        <v>1.335844851805186</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1.3718693477648767</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1.2188487640074248</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>1.7531418757847834</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0.36011795949537123</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0.26168224299065418</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0.34105865522174522</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0.90224980605120242</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0.28081377492270732</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0.32817920708212345</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>1.2635744551541408</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>0.084203836515681127</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
+      <c r="B3" s="2">
+        <v>0.97299572297204495</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.1169710148733778</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.0029996213062085</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.92390005343663217</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.12967581047381546</v>
+      </c>
+      <c r="G3" s="2">
+        <v>7.8035969992104697</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.88046878319087929</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1.0945348996134048</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.87796086319644973</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.22906525611634929</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.43258985956738016</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.13785019087738343</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.3912729456413073</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.061187989873238167</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.14569072456092882</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.31421683689652985</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.12840255094104838</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.97304280303322233</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0.25490196078431371</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0.10216110019646366</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0.89114789492623259</v>
+      </c>
+      <c r="W3" s="2">
+        <v>1.0882922383871054</v>
+      </c>
+      <c r="X3" s="2">
+        <v>1.1940667069546325</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1.3520452094556719</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1.0303597433245402</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1.2222089443524478</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>1.6589355628251248</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0.34094336032882078</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0.24299065420560748</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0.31860900187080432</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0.8538919058701836</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0.26586014319443146</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0.31073089017910088</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>0.94887037706498745</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>4.5173501045513884</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>1.1965415561268908</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>0.079690761872966212</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
+      <c r="B4" s="2">
+        <v>1.0769230769230769</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.3838150543537584</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.1408002003192739</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.99138669749099573</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G4" s="2">
+        <v>9.9514426689408957</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.92033198972732799</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1.1695704859626153</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.95682785599274489</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.26104822333295857</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.49838963039964473</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.147218640854854</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.5265495530552184</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.064347121778948288</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.14359051614801582</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.33574441468460814</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.13148010903289831</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.97900589820365591</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.26415094339622641</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0.10748560460652591</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0.90717628705148212</v>
+      </c>
+      <c r="W4" s="2">
+        <v>1.1493792108290479</v>
+      </c>
+      <c r="X4" s="2">
+        <v>1.1141449275172777</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1.4311492283060285</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0.99629434157873509</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1.2061128234166179</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>1.918431123766724</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0.40256503366416801</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0.25925925925925924</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0.33589109983959758</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0.94934470092059331</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>0.28940494051279603</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0.38892948857459114</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>1.0559064462487961</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>1.0351304240925803</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>1.1265164476774943</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>0.084035165188069527</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.62080320049238313</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.82717469844112468</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.36527544097693343</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.12659438775510204</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.93311271695819542</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.30913236478356876</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.31573271012141713</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.67631319321952832</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.12594436813186818</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.091993909564108939</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.032532734428660205</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.033042486932829906</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.052660991571710759</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.25193791458993969</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.10822046287168083</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.41766749379652601</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.23545597484276731</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.098368522072936657</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.6693269232554433</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.79353303829525967</v>
+      </c>
+      <c r="X5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0.81728349818667079</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0.81371007987512689</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0.19265578181373455</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0.23620756172839505</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0.27626137303556658</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0.63738954307747064</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0.14122051069625899</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0.14870752568600826</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0.30099227766377556</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0.051739561893414644</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
+      <c r="B6" s="2">
+        <v>0.90349602847404176</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.34956807160398895</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.72725785729905268</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.3479248270371566</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.82286352040816346</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.73171658022073172</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.31805312014236536</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.25563260864875598</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.66914552797302318</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.45660661322288715</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.17416060952994794</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.20859225883354693</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.61262542614692361</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.4862113474634101</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.3472900339598457</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.71016756471623521</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.77897842797909445</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.40399056264964406</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.82769982993197266</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0.84980867346938782</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.69826890797085772</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.65817928942651971</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.80228908001959554</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.68864205355041352</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0.84522814219802667</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0.83139556115880831</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0.40136170974174068</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0.45308893249422327</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0.8460087159863946</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0.76833503392703661</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0.63541447370197979</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0.46198371145261635</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0.36202239972385031</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>0.89863110546955727</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>4.3640395445930436</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0.25301412385893629</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0.58269029984603871</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
